--- a/resources/firstparent_slices.xlsx
+++ b/resources/firstparent_slices.xlsx
@@ -721,7 +721,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>eb43df0e820a85fdaa99c9c69b668157de4cc037</t>
+          <t>de166a040a0252edba9cf760273666003c5da5ed</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>7e8693f8118aa47f70be9bb8337a5759781251f0</t>
+          <t>fa81dce53d48570422d4bbe341b8bd5ad9f8de8c</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>15ec80fcf1b8327b7bc780409aeab03f198384b9</t>
+          <t>50026ff937a5af26179ee4daab8ab93d541e38ab</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>1099befced42becbc1f45a9d53124f5d3545b523</t>
+          <t>2b89f946f21189f260f28638cdefdf191e3af8a6</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>34cc69306fad2f5e27caa4c74cba9e16d8a0234a</t>
+          <t>50b2fcad36391a4a17113ddfa93691645c79fa6a</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>36a249a596ea14f71c924a139131f2223ad65c41</t>
+          <t>f9b8c8da0f8ad32b3159d6d31a1def076ffc6ed2</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>b09a5a694836f3d4c9252abb44149e7ad12628b0</t>
+          <t>ca5cd616c778e31e8cd2e1489f109908605a3446</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -11131,7 +11131,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>461294289e2f2a21598c62d62a684cb6f986330f</t>
+          <t>5cb924a11fb72b2f7ac9eaee3ddce5c62795a9bb</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>311bacdf6e544b499056f80b73eee56a1a3e3f1c</t>
+          <t>a1add365b97d1d83f962325294e26c38b996b9b5</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -12121,7 +12121,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>58159b96b85a66ab227e84c29435cb90f7412fe8</t>
+          <t>1fd4b956c11adbc81e45f5e7fa6316017f74467c</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
